--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdssr\Documents\VSCode-Workspace\Tuwaiq\github\capstone-project-letterhunter\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B6C0E-FC3B-40AE-98B5-E575388E5417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Arabic Letter</t>
   </si>
@@ -28,179 +22,128 @@
     <t>Objects in English</t>
   </si>
   <si>
+    <t>ا</t>
+  </si>
+  <si>
+    <t>س</t>
+  </si>
+  <si>
+    <t>ش</t>
+  </si>
+  <si>
+    <t>ح</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>ج</t>
+  </si>
+  <si>
+    <t>ه</t>
+  </si>
+  <si>
+    <t>ت</t>
+  </si>
+  <si>
+    <t>ك</t>
+  </si>
+  <si>
+    <t>ل</t>
+  </si>
+  <si>
+    <t>ق</t>
+  </si>
+  <si>
+    <t>ص</t>
+  </si>
+  <si>
+    <t>ب</t>
+  </si>
+  <si>
+    <t>ن</t>
+  </si>
+  <si>
+    <t>ع</t>
+  </si>
+  <si>
+    <t>ف</t>
+  </si>
+  <si>
+    <t>د</t>
+  </si>
+  <si>
+    <t>و</t>
+  </si>
+  <si>
+    <t>ز</t>
+  </si>
+  <si>
     <t>ط</t>
   </si>
   <si>
-    <t>Helicopter, Desk, Pasta, Popcorn, Penguin, Plate, Food, Magpie, Sushi, Turkey, Frying pan, Eagle, Fast food, Raven, Nightstand, Parrot, Drum, Swan, Human foot, Egg (Food), Sandwich, Girl, Saucer, Stool, Canary, Airplane, Boy, Hat, Kite, Human arm, Aircraft, Ostrich, Pizza, Tomato, Duck, Grinder, Vegetable, Mixing bowl, Platter, Owl, Table, Waffle, Salad, Printer, Snack, Suit, Falcon, Goose, Serving tray, Sports uniform, Woodpecker, Pressure cooker, Lipstick, Bird, Taco, Human leg, Seafood</t>
-  </si>
-  <si>
-    <t>م</t>
-  </si>
-  <si>
-    <t>Whale, Parachute, Pasta, Towel, Nail (Construction), Heater, Tripod, Pillow, Light switch, Sink, Mobile phone, Submarine, Street light, Pencil sharpener, Drink, Racket, Office supplies, Lion, Bathtub, Football helmet, Mango, Aircraft, Grinder, Oyster, Building, Umbrella, Rocket, Baseball bat, Table tennis racket, Lamp, Studio couch, Handgun, Taxi, Toilet, Vase, Hand dryer, Sports uniform, Muffin, Juice, Furniture, Lipstick, Tank, Banana, Dairy Product, Truck, Helicopter, Desk, Book, Coat, Ladle, Face powder, Computer mouse, Ruler, Cabbage, Dress, Unicycle, Tool, Alarm clock, Ceiling fan, Paper cutter, Insect, Starfish, Animal, Car, Table, Waffle, Salad, Dice, Hair spray, Eraser, Plumbing fixture, Scissors, Suit, Wood-burning stove, Land vehicle, Shirt, Squid, Goat, Candle, Shrimp, Frying pan, Milk, Spoon, Power plugs and sockets, Croissant, Watercraft, Nightstand, Soap dispenser, Pastry, Swimwear, Clothing, Spatula, Toaster, Tower, Door handle, Hammer, Sewing machine, Snowmobile, Train, Shellfish, Loveseat, Tap, Van, Swimming pool, Gas stove, Shorts, Envelope, Skyscraper, Stapler, Baked goods, Door, Flashlight, Poster, Syringe, Coffee, Popcorn, Food, Paper towel, Binoculars, Scale, Perfume, Tennis racket, Hair dryer, Jacket, Tent, Ipod, Skirt, Doughnut, Pumpkin, Lantern, Torch, Sports equipment, Vehicle, Wrench, Jeans, Tea, Microwave oven, Drinking straw, Sculpture, Oven, Blender, Balloon, Tire, Chair, Microphone, Office building, Spice rack, Salt and pepper shakers, Mechanical fan, Bus, Screwdriver, Human face, Pretzel, Light bulb, Seafood</t>
-  </si>
-  <si>
-    <t>ن</t>
-  </si>
-  <si>
-    <t>Pasta, Binoculars, Eagle, Palm tree, Tree, Squash (Plant), Mushroom, Tiger, Airplane, Flower, Leopard, Lavender (Plant), Window blind, Bee, Ant, Vegetable, Ostrich, Starfish, Coin, Radish, Skyscraper, Rose, Footwear, Lamp, Dice, Stretcher, Sunglasses, Plant, Woodpecker, Glasses, Zucchini</t>
-  </si>
-  <si>
-    <t>س</t>
-  </si>
-  <si>
-    <t>Ladder, Candy, Bed, Stethoscope, Fish, Stairs, Sushi, Weapon, Digital clock, Milk, Shotgun, Limousine, Watercraft, Heater, Boat, Lobster, Jacket, Crab, Hot dog, Shark, Tortoise, Sandwich, Submarine, Sofa bed, Alarm clock, Snowmobile, Headphones, Vehicle, Window blind, Woman, Necklace, Watch, Picnic basket, Squirrel, Sea turtle, Van, Ambulance, Knife, Rifle, Seahorse, Car, Missile, Shorts, Rocket, Table, Curtain, Salad, Sword, Turtle, Whiteboard, Handgun, Taxi, Trousers, Clock, Wall clock, Land vehicle, Lizard, Juice, Waste container, Human leg, Truck</t>
-  </si>
-  <si>
-    <t>ع</t>
-  </si>
-  <si>
-    <t>Moths and butterflies, Pretzel, Cart, Bottle, Eagle, Bull, Perfume, Chopsticks, Bicycle wheel, Orange, Wheel, Calculator, Human ear, Crutch, Box, Mushroom, Human foot, Flag, Spider, Drink, Canary, Snowmobile, Bicycle, Necklace, Human mouth, Human arm, Human nose, Grape, Coin, Ambulance, Building, Sculpture, Pomegranate, Human eye, Baseball bat, Tire, Tie, Bread, Scorpion, Plant, Falcon, Traffic sign, Pencil case, Land vehicle, Glasses, Juice, Tin can, Stop sign, Bird, Human hand, Truck</t>
-  </si>
-  <si>
-    <t>ح</t>
-  </si>
-  <si>
-    <t>Whale, Candy, Handbag, Bear, Tripod, Deer, Sink, Seat belt, Giraffe, Rhinoceros, Bathtub, Brown bear, Picnic basket, Worm, Pomegranate, Seahorse, Turtle, Vase, Toilet, Porcupine, Red panda, Castle, Dairy Product, Plastic bag, Diaper, Polar bear, Dessert, Calculator, Kangaroo, Lemon, Tiger, Laptop, Tortoise, Reptile, Raccoon, Ice cream, Hedgehog, High heels, Squirrel, Insect, Sea turtle, Starfish, Animal, Mouse, Sock, Sheep, Horse, Sea lion, Cake, Jacuzzi, Moths and butterflies, Squid, Goat, Cookie, Earrings, Milk, Pitcher (Container), Luggage and bags, Soap dispenser, Pastry, Spider, Jaguar (Animal), Butterfly, Snake, Picture frame, Bee, Dolphin, Swimming pool, Rays and skates, Footwear, Stretcher, Fox, Glove, Elephant, Waste container, Pig, Hamster, Tart, Panda, Sandal, Belt, Zebra, Window blind, Backpack, Ladybug, Ant, Dog, Suitcase, Scorpion, Snail, Spice rack, Boot, Salt and pepper shakers, Pencil case, Bus, Shower, Rabbit, Mammal</t>
-  </si>
-  <si>
-    <t>ك</t>
-  </si>
-  <si>
-    <t>Cake, Squid, Cart, Bird, Plastic bag, Book, Couch, Fish, Cookie, Tree, Croissant, Ball, Tart, Golf ball, Lobster, Mug, Kangaroo, Pear, Box, Cabbage, Laptop, Tortoise, Spider, Stool, Doughnut, Zucchini, Canary, Cream, Tablet computer, Coffee cup, Tennis ball, Measuring cup, Shellfish, Volleyball (Ball), Violin, Ladybug, High heels, Loveseat, Wheelchair, Dog, Insect, Worm, Animal, Frog, Balloon, Camera, Chair, Turtle, Snail, Studio couch, Pancake, Football, Rugby ball, Glove, Flashlight, Punching bag, Muffin, Computer keyboard, Human hand</t>
-  </si>
-  <si>
-    <t>ظ</t>
-  </si>
-  <si>
-    <t>Envelope, Antelope</t>
-  </si>
-  <si>
-    <t>غ</t>
-  </si>
-  <si>
-    <t>Raven, Window blind, Teapot, Deer, Kettle, Snack, Fruit, Swim cap, Magpie, Submarine, Antelope, Umbrella, Helmet, Boy, Hat, Washing machine</t>
-  </si>
-  <si>
-    <t>ت</t>
-  </si>
-  <si>
-    <t>Shirt, Apple, Binoculars, Human hair, Tart, Dessert, Television, Tiara, Skirt, Crocodile, Tablet computer, Snowman, Miniskirt, Sculpture, Corded phone, Taxi, Plumbing fixture, Clock, Skateboard, Crown, Strawberry, Taco</t>
-  </si>
-  <si>
-    <t>ف</t>
-  </si>
-  <si>
-    <t>Moths and butterflies, Popcorn, Bed, Apple, Diaper, Peach, Pineapple, Toothbrush, Power plugs and sockets, Chicken, Squash (Plant), Orange, Tart, Computer mouse, Mug, Pear, Lemon, Mushroom, Pastry, Dress, Tiger, Jaguar (Animal), Girl, Butterfly, Can opener, Coffee cup, Lion, Leopard, Lantern, Woman, Human mouth, Microwave oven, Mango, Tomato, Pizza, Person, Grape, Van, Oven, Gas stove, Radish, Pomegranate, Seahorse, Mouse, Waffle, Bell pepper, Fax, Pancake, Horse, Fruit, Man, Watermelon, Flying disc, Muffin, Elephant, Strawberry, Banana</t>
-  </si>
-  <si>
-    <t>ش</t>
-  </si>
-  <si>
-    <t>Fork, Candle, Cantaloupe, Scarf, Handbag, Palm tree, Human hair, Tree, Squash (Plant), Luggage and bags, Ruler, Band-aid, Television, Sandwich, Computer monitor, Belt, Drink, Shelf, Lantern, Snowman, Backpack, Hamburger, Human mouth, Tea, Drinking straw, Person, Sculpture, Suitcase, Monkey, Shorts, Human beard, Tie, French fries, Plant, Trousers, Man, Scoreboard, Taco, Truck</t>
-  </si>
-  <si>
-    <t>خ</t>
-  </si>
-  <si>
-    <t>Cucumber, Pig, Peach, Whisk, Human hair, Squash (Plant), Bicycle helmet, Wardrobe, Carrot, Tent, Drawer, Barrel, Helmet, Mixer, Pumpkin, Football helmet, Cabinetry, Tomato, Vegetable, Potato, Cupboard, Radish, Blender, Bat (Animal), Salad, Sheep, Closet, Bread, Baked goods, Pretzel, Zucchini</t>
-  </si>
-  <si>
-    <t>ب</t>
-  </si>
-  <si>
-    <t>Human body, Penguin, Cantaloupe, Cookie, Shotgun, Orange, Face powder, Swan, Parrot, Panda, Egg (Food), Swimwear, Girl, Tower, Piano, Barrel, Ice cream, Bicycle, Bathtub, Jeans, Cat, Pizza, Potato, Duck, Frog, Building, Rifle, Gas stove, Swimming pool, Balloon, Owl, Skyscraper, Human eye, Office building, Camel, French fries, Hair spray, Suit, Boot, Red panda, Door, Trousers, Watermelon, Bus, Sea lion, Pretzel, Broccoli</t>
-  </si>
-  <si>
-    <t>ل</t>
-  </si>
-  <si>
-    <t>Plate, Scarf, Turkey, Milk, Computer keyboard, Limousine, Teddy bear, Lemon, Scoreboard, Flag, Band-aid, Laptop, Snowboard, Street light, Saucer, Office supplies, Kite, Lavender (Plant), Toy, Billboard, Oyster, Vehicle registration plate, Platter, Human beard, Sock, Whiteboard, Doll, Traffic sign, Skateboard, Surfboard, Flying disc, Poster, Stop sign, Light bulb, Taco, Cheese</t>
-  </si>
-  <si>
-    <t>و</t>
-  </si>
-  <si>
-    <t>Popcorn, Scarf, Food, Towel, Paper towel, Fast food, Toilet paper, Dessert, Bowl, Pillow, Teapot, Hot dog, Barrel, Wok, Rhinoceros, Flower, Boy, Jug, Vehicle, Hamburger, Mixing bowl, Rose, Waffle, Bat (Animal), Vase, Snack, Human face, Lizard, Remote control</t>
-  </si>
-  <si>
-    <t>ق</t>
-  </si>
-  <si>
-    <t>Shirt, Coffee, Cowboy hat, Bottle, Book, Scarf, Shrimp, Towel, Hamster, Polar bear, Pitcher (Container), Nail (Construction), Bicycle helmet, Watercraft, Boat, Crab, Human foot, Tiger, Shark, Pen, Pizza cutter, Cream, Wok, Lion, Hat, Leopard, Pumpkin, Raccoon, Sun hat, Jug, Train, Shellfish, Hedgehog, Necklace, Squirrel, Swim cap, Paper cutter, Cat, Baseball glove, Monkey, Missile, Mouse, Rays and skates, Rocket, Snack, Porcupine, Red panda, Glove, Flying disc, Rabbit, Castle, Lynx, Broccoli</t>
-  </si>
-  <si>
-    <t>د</t>
-  </si>
-  <si>
-    <t>Turkey, Stairs, Polar bear, Dumbbell, Human head, Nail (Construction), Chicken, Bear, Teddy bear, Tripod, Wardrobe, Wheel, Pillow, Teapot, Panda, Unicycle, Motorcycle, Drawer, Doughnut, Vehicle, Bicycle, Brown bear, Ladybug, Worm, Dolphin, Cabinetry, Toy, Potato, Cupboard, Furniture, Tie, Stapler, Closet, Doll, Stationary bicycle, Toilet, Red panda, Shower, Dinosaur, Tank</t>
-  </si>
-  <si>
-    <t>ز</t>
-  </si>
-  <si>
-    <t>Roller skates, Bottle, Earrings, Watercraft, Bowl, Boat, Light switch, Swimwear, Tiara, Skirt, Reptile, Belt, Crocodile, Snake, Giraffe, Flower, Lavender (Plant), Shorts, Rose, Curtain, Suit, Plant, Crown, Sports uniform, Lizard, Dinosaur</t>
-  </si>
-  <si>
-    <t>ج</t>
-  </si>
-  <si>
-    <t>Parachute, Jacuzzi, Human body, Kettle, Stethoscope, Shrimp, Weapon, Coat, Scale, Whisk, Coconut, Bicycle wheel, Heater, Lobster, Jacket, Carrot, Soap dispenser, Television, Laptop, Snowboard, Mobile phone, Unicycle, Jaguar (Animal), Pencil sharpener, Tool, Toaster, Tablet computer, Ceiling fan, Sewing machine, Mixer, Snowmobile, Jeans, Watch, Washing machine, Microwave oven, Wheelchair, Waffle iron, Oven, Microphone, Sock, Stapler, Fax, Camel, Printer, Stationary bicycle, Stretcher, Horse, Plumbing fixture, Telephone, Scissors, Wood-burning stove, Wall clock, Mechanical fan, Hand dryer, Skateboard, Surfboard, Refrigerator, Pressure cooker, Remote control, Cheese</t>
-  </si>
-  <si>
-    <t>ص</t>
-  </si>
-  <si>
-    <t>Box, Sandal, Plate, Coffeemaker, Falcon, Serving tray, Tap, Waste container, Oyster, Saucer, Platter, Tableware, Missile, Poster, Rocket, Boy, Bowl</t>
-  </si>
-  <si>
-    <t>ر</t>
-  </si>
-  <si>
-    <t>Coat, Perfume, Human head, Wardrobe, Flag, Raccoon, Shelf, Snowman, Person, Vehicle registration plate, Pomegranate, Envelope, Tie, Bread, Football, Spice rack, Man, Lipstick, Human leg</t>
-  </si>
-  <si>
-    <t>ث</t>
-  </si>
-  <si>
-    <t>Fox, Dolphin, Fruit, Grape, Bull, Refrigerator, Sea lion, Coconut, Snake, Mammal</t>
-  </si>
-  <si>
-    <t>ض</t>
-  </si>
-  <si>
-    <t>Frog, Candle, Traffic light</t>
-  </si>
-  <si>
-    <t>ه</t>
-  </si>
-  <si>
-    <t>Pear, Corded phone, Hot dog, Hamburger, Telephone, Cat, Mobile phone, Hamster, Tower</t>
-  </si>
-  <si>
-    <t>ذ</t>
-  </si>
-  <si>
-    <t>Human arm, Man</t>
-  </si>
-  <si>
-    <t>ي</t>
-  </si>
-  <si>
-    <t>Pumpkin, Human hand</t>
-  </si>
-  <si>
-    <t>ا</t>
-  </si>
-  <si>
-    <t>Lynx, Woman, Calculator, Ice cream, Printer, Drum, Stationary bicycle, Tank, Violin, Ipod, Washing machine, Coffeemaker, Waffle iron, Piano, Sewing machine, Camera, Mixer, Musical instrument, Stapler, Fax, Roller skates, Fork, Pineapple, Dumbbell, Chopsticks, Golf ball, Tripod, Pencil sharpener, Sofa bed, Racket, Office supplies, Lion, Woman, Violin, Grinder, Knife, Table tennis racket, Baseball bat, Musical instrument, Sunglasses, Studio couch, Handgun, Furniture, Lipstick, Sushi, Ladle, Tableware, Toothbrush, Human ear, Ruler, Tool, Paper cutter, Dice, Plumbing fixture, Eraser, Scissors, Sea lion, Squid, Couch, Earrings, Stairs, Frying pan, Spoon, Fast food, Whisk, Luggage and bags, Clothing, Spatula, Snake, Hammer, Helmet, Sun hat, Loveseat, Toy, Rays and skates, Footwear, Pancake, Syringe, Ladder, Bed, Food, Weapon, Tennis racket, Hair dryer, Crutch, Pen, Antelope, Stool, Pizza cutter, Can opener, Headphones, Sports equipment, Wrench, Human nose, Drinking straw, Salt and pepper shakers, Screwdriver, Rabbit, Seafood, Pitcher (Container), Bicycle wheel, Stop sign, Wheel, Teapot, Tiara, Street light, Wok, Traffic light, Picture frame, Jug, Lantern, Person, Billboard, Ambulance, Tire, Lamp, Goose, Man, Traffic sign, Glasses, Poster, Syringe, Light bulb</t>
+    <t>Couch, Airpods, Ipad</t>
+  </si>
+  <si>
+    <t>Board, Prayer Beads, Airpods</t>
+  </si>
+  <si>
+    <t>Shemagh, Bag</t>
+  </si>
+  <si>
+    <t>Laptop, Bag</t>
+  </si>
+  <si>
+    <t>Tissue, Vase, Car Keys, Mouse, Prayer Beads, Pillow, Keys</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>Ipad, Cell Phone</t>
+  </si>
+  <si>
+    <t>Couch, Cup, Chair, Laptop</t>
+  </si>
+  <si>
+    <t>Laptop, Chess Board</t>
+  </si>
+  <si>
+    <t>Water Bottle, Chess Piece, Pen</t>
+  </si>
+  <si>
+    <t>Couch</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>coin, Plant, money, Glasses</t>
+  </si>
+  <si>
+    <t>coin, Iqal</t>
+  </si>
+  <si>
+    <t>Tissue, money, Mouse, Vase</t>
+  </si>
+  <si>
+    <t>money, Notebook</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Switch Light</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +154,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,14 +206,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -555,16 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,231 +508,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/028a108878611417/final_projec_tuwaiq/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E88371D9-C4B2-400C-8ACC-7ED741E30719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3984CA3-43E2-48B1-BBAC-1724DE462CD0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,12 +88,6 @@
     <t>ط</t>
   </si>
   <si>
-    <t>Couch, Airpods, Ipad</t>
-  </si>
-  <si>
-    <t>Board, Prayer Beads, Airpods</t>
-  </si>
-  <si>
     <t>Shemagh, Bag</t>
   </si>
   <si>
@@ -115,9 +115,6 @@
     <t>Couch</t>
   </si>
   <si>
-    <t>Door</t>
-  </si>
-  <si>
     <t>coin, Plant, money, Glasses</t>
   </si>
   <si>
@@ -137,17 +134,26 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Couch, Airpods, Ipad, Tea-Coffee Pot</t>
+  </si>
+  <si>
+    <t>Board, Prayer Beads, Airpods, Watch</t>
+  </si>
+  <si>
+    <t>Door, Balloon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +161,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,13 +212,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +264,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,9 +333,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,14 +509,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,164 +526,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
